--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Accreditation procedure Ass.Tec.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Accreditation procedure Ass.Tec.xlsx
@@ -26,16 +26,10 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>ISO/IEC17025</t>
+    <t>According to OIE guidelines</t>
   </si>
   <si>
-    <t>V001A</t>
-  </si>
-  <si>
-    <t>Other third party quality assessment procedure</t>
-  </si>
-  <si>
-    <t>V004A</t>
+    <t>V006A</t>
   </si>
   <si>
     <t>Internally validated</t>
@@ -44,16 +38,22 @@
     <t>V005A</t>
   </si>
   <si>
-    <t>According to OIE guidelines</t>
+    <t>ISO/IEC17025</t>
   </si>
   <si>
-    <t>V006A</t>
+    <t>V001A</t>
   </si>
   <si>
     <t>Not validated</t>
   </si>
   <si>
     <t>V999A</t>
+  </si>
+  <si>
+    <t>Other third party quality assessment procedure</t>
+  </si>
+  <si>
+    <t>V004A</t>
   </si>
 </sst>
 </file>
